--- a/STAT383_Project_data.xlsx
+++ b/STAT383_Project_data.xlsx
@@ -90,8 +90,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -116,7 +156,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -124,6 +164,26 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -131,6 +191,26 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -454,307 +534,307 @@
     <row r="2" spans="2:7">
       <c r="B2">
         <f ca="1">F2</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <f ca="1">G2</f>
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <f ca="1">ROUND(NORMINV(RAND(), 100, 5),0)</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(NORMINV(RAND(), 100, 5),0)</f>
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3">
         <f t="shared" ref="B3:B21" ca="1" si="0">F3</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="1">G3</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:G22" ca="1" si="2">ROUND(NORMINV(RAND(), 100, 5),0)</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="2"/>
         <v>99</v>
       </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="2"/>
-        <v>102</v>
-      </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -764,691 +844,691 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
         <v>97</v>
       </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="2"/>
-        <v>97</v>
-      </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23">
         <f t="shared" ref="G23:G86" ca="1" si="3">ROUND(NORMINV(RAND(), 100, 5),0)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="4:7">
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="4:7">
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="4:7">
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="4:7">
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="4:7">
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="4:7">
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="4:7">
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="4:7">
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="4:7">
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="4:7">
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="4:7">
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="4:7">
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="4:7">
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="4:7">
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="4:7">
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="4:7">
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="4:7">
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="4:7">
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="4:7">
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="4:7">
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="4:7">
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="4:7">
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="4:7">
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="4:7">
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="4:7">
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="4:7">
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="4:7">
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="4:7">
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="4:7">
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="4:7">
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="4:7">
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="4:7">
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="4:7">
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="3"/>
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="4:7">
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="4:7">
       <c r="D67">
         <f t="shared" ref="D67:D101" ca="1" si="4">G67</f>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="3"/>
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="4:7">
       <c r="D68">
         <f t="shared" ca="1" si="4"/>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="4:7">
       <c r="D69">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="4:7">
       <c r="D70">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="4:7">
       <c r="D71">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="4:7">
       <c r="D72">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="4:7">
       <c r="D73">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="4:7">
       <c r="D74">
         <f t="shared" ca="1" si="4"/>
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="4:7">
       <c r="D75">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="4:7">
       <c r="D76">
         <f t="shared" ca="1" si="4"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="3"/>
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="4:7">
       <c r="D77">
         <f t="shared" ca="1" si="4"/>
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="4:7">
       <c r="D78">
         <f t="shared" ca="1" si="4"/>
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="3"/>
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="4:7">
       <c r="D79">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="4:7">
       <c r="D80">
         <f t="shared" ca="1" si="4"/>
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="3"/>
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="4:7">
       <c r="D81">
         <f t="shared" ca="1" si="4"/>
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="3"/>
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="4:7">
       <c r="D82">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="4:7">
       <c r="D83">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="4:7">
       <c r="D84">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="4:7">
       <c r="D85">
         <f t="shared" ca="1" si="4"/>
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="3"/>
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="4:7">
@@ -1464,71 +1544,71 @@
     <row r="87" spans="4:7">
       <c r="D87">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G87">
         <f t="shared" ref="G87:G101" ca="1" si="5">ROUND(NORMINV(RAND(), 100, 5),0)</f>
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="4:7">
       <c r="D88">
         <f t="shared" ca="1" si="4"/>
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="4:7">
       <c r="D89">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="4:7">
       <c r="D90">
         <f t="shared" ca="1" si="4"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="4:7">
       <c r="D91">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="4:7">
       <c r="D92">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="4:7">
       <c r="D93">
         <f t="shared" ca="1" si="4"/>
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="4:7">
@@ -1544,31 +1624,31 @@
     <row r="95" spans="4:7">
       <c r="D95">
         <f t="shared" ca="1" si="4"/>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="4:7">
       <c r="D96">
         <f t="shared" ca="1" si="4"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="4:7">
       <c r="D97">
         <f t="shared" ca="1" si="4"/>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="4:7">
@@ -1584,21 +1664,21 @@
     <row r="99" spans="4:7">
       <c r="D99">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="4:7">
       <c r="D100">
         <f t="shared" ca="1" si="4"/>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="4:7">
